--- a/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Bottom_Vitreous.xlsx
+++ b/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Bottom_Vitreous.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in symmetry axis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="14_{E56D3440-054A-45F7-AC12-664192BD151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBD15D5-40DE-43D1-8F97-8306756A0A17}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="14_{E56D3440-054A-45F7-AC12-664192BD151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C50B2B-D5C4-4E31-8752-CFBC5525636F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
   <si>
     <t>Experimental data</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>half-live (d)</t>
+  </si>
+  <si>
+    <t>stdv</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -127,8 +133,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +470,9 @@
         <v>8</v>
       </c>
       <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
@@ -490,6 +497,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -522,6 +532,9 @@
       <c r="B5">
         <v>414.93257202146998</v>
       </c>
+      <c r="C5">
+        <v>80.180000000000007</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -554,6 +567,9 @@
       <c r="B6">
         <v>328.74104593189298</v>
       </c>
+      <c r="C6">
+        <v>44.86</v>
+      </c>
       <c r="D6">
         <v>0.5</v>
       </c>
@@ -586,6 +602,9 @@
       <c r="B7">
         <v>129.52677443553199</v>
       </c>
+      <c r="C7">
+        <v>25.43</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -618,6 +637,9 @@
       <c r="B8">
         <v>48.461098954332002</v>
       </c>
+      <c r="C8">
+        <v>4.91</v>
+      </c>
       <c r="D8">
         <v>1.5</v>
       </c>
@@ -650,6 +672,9 @@
       <c r="B9">
         <v>4.6017322765137996</v>
       </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -732,6 +757,9 @@
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
       <c r="D12">
         <v>3.5</v>
       </c>
@@ -764,6 +792,9 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
       <c r="D13">
         <v>4</v>
       </c>
@@ -796,6 +827,9 @@
       <c r="B14">
         <v>517.94746792312196</v>
       </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
       <c r="D14">
         <v>4.5</v>
       </c>
@@ -828,6 +862,9 @@
       <c r="B15">
         <v>89.615050194660597</v>
       </c>
+      <c r="C15">
+        <v>13.51</v>
+      </c>
       <c r="D15">
         <v>5</v>
       </c>
@@ -860,6 +897,9 @@
       <c r="B16">
         <v>57.796928841533195</v>
       </c>
+      <c r="C16">
+        <v>11.11</v>
+      </c>
       <c r="D16">
         <v>5.5</v>
       </c>
@@ -892,6 +932,9 @@
       <c r="B17">
         <v>26.826957952797198</v>
       </c>
+      <c r="C17">
+        <v>9.11</v>
+      </c>
       <c r="D17">
         <v>6</v>
       </c>
@@ -924,6 +967,9 @@
       <c r="B18">
         <v>5.9948425031894104</v>
       </c>
+      <c r="C18">
+        <v>1.56</v>
+      </c>
       <c r="D18">
         <v>6.5</v>
       </c>
@@ -1032,6 +1078,9 @@
         <v>10</v>
       </c>
       <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
       <c r="D22">
         <v>8.5</v>
       </c>
@@ -1064,6 +1113,9 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
       <c r="D23">
         <v>9</v>
       </c>
@@ -1096,6 +1148,9 @@
       <c r="B24">
         <v>59.2</v>
       </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
       <c r="D24">
         <v>9.5</v>
       </c>
@@ -1128,6 +1183,9 @@
       <c r="B25">
         <v>4.7469999999999999</v>
       </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
       <c r="D25">
         <v>10</v>
       </c>
@@ -1160,6 +1218,9 @@
       <c r="B26">
         <v>3.5</v>
       </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
       <c r="D26">
         <v>10.5</v>
       </c>
@@ -1242,6 +1303,9 @@
         <v>11</v>
       </c>
       <c r="B29" s="4"/>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
       <c r="D29">
         <v>12</v>
       </c>
@@ -1274,6 +1338,9 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
       <c r="D30">
         <v>12.5</v>
       </c>
@@ -1306,6 +1373,9 @@
       <c r="B31">
         <v>156</v>
       </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
       <c r="D31">
         <v>13</v>
       </c>
@@ -1338,6 +1408,9 @@
       <c r="B32">
         <v>87.3333333333333</v>
       </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
       <c r="D32">
         <v>13.5</v>
       </c>
@@ -1370,6 +1443,9 @@
       <c r="B33">
         <v>30</v>
       </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
       <c r="D33">
         <v>14</v>
       </c>
@@ -1402,6 +1478,9 @@
       <c r="B34">
         <v>19.1404115825896</v>
       </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
       <c r="D34">
         <v>14.5</v>
       </c>
@@ -1434,6 +1513,9 @@
       <c r="B35">
         <v>2.4221453287196901</v>
       </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
       <c r="D35">
         <v>15</v>
       </c>
@@ -1516,6 +1598,9 @@
         <v>7</v>
       </c>
       <c r="B38" s="4"/>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
       <c r="D38">
         <v>16.5</v>
       </c>
@@ -1548,6 +1633,9 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
       <c r="D39">
         <v>17</v>
       </c>
@@ -1580,6 +1668,9 @@
       <c r="B40">
         <v>1471.7436403597401</v>
       </c>
+      <c r="C40">
+        <v>79.8</v>
+      </c>
       <c r="D40">
         <v>17.5</v>
       </c>
@@ -1612,6 +1703,9 @@
       <c r="B41">
         <v>679.46616012253696</v>
       </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
       <c r="D41">
         <v>18</v>
       </c>
@@ -1644,6 +1738,9 @@
       <c r="B42">
         <v>334.56116246598299</v>
       </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
       <c r="D42">
         <v>18.5</v>
       </c>
@@ -1676,6 +1773,9 @@
       <c r="B43">
         <v>127.31955290816499</v>
       </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
       <c r="D43">
         <v>19</v>
       </c>
@@ -1708,6 +1808,9 @@
       <c r="B44">
         <v>32.3958597771421</v>
       </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
       <c r="D44">
         <v>19.5</v>
       </c>
@@ -2831,16 +2934,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2850,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD98C11-72ED-452E-BC9D-BB0E0962D6D6}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,31 +3070,24 @@
       <c r="F5">
         <v>859.53361796084278</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <v>859.53316904222493</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
         <v>859.53361796969637</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
         <v>859.53317165733438</v>
       </c>
-      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3006,31 +3102,24 @@
       <c r="F6">
         <v>857.82393043726472</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
       <c r="I6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="J6">
         <v>739.17128387237688</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
       <c r="M6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="N6">
         <v>859.53358261359062</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
       <c r="Q6">
         <v>9.9999999999999895E-2</v>
       </c>
       <c r="R6">
         <v>741.9698240364994</v>
       </c>
-      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3045,31 +3134,24 @@
       <c r="F7">
         <v>853.05569493419125</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
       <c r="I7">
         <v>0.19999999999999901</v>
       </c>
       <c r="J7">
         <v>594.89630760396392</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
       <c r="M7">
         <v>0.19999999999999901</v>
       </c>
       <c r="N7">
         <v>859.50430472684047</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
       <c r="Q7">
         <v>0.19999999999999901</v>
       </c>
       <c r="R7">
         <v>602.60860231274546</v>
       </c>
-      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3084,31 +3166,24 @@
       <c r="F8">
         <v>845.89995323927167</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
       <c r="I8">
         <v>0.3</v>
       </c>
       <c r="J8">
         <v>480.40439131336171</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
       <c r="M8">
         <v>0.3</v>
       </c>
       <c r="N8">
         <v>859.14742968984194</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
       <c r="Q8">
         <v>0.3</v>
       </c>
       <c r="R8">
         <v>492.43528872154047</v>
       </c>
-      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3123,31 +3198,24 @@
       <c r="F9">
         <v>836.37876476571796</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
       <c r="I9">
         <v>0.39999999999999902</v>
       </c>
       <c r="J9">
         <v>391.32783208476695</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
       <c r="M9">
         <v>0.39999999999999902</v>
       </c>
       <c r="N9">
         <v>857.84740221530058</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
       <c r="Q9">
         <v>0.39999999999999902</v>
       </c>
       <c r="R9">
         <v>406.49978420068402</v>
       </c>
-      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E10">
@@ -3156,31 +3224,24 @@
       <c r="F10">
         <v>824.59632495300207</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
       <c r="I10">
         <v>0.5</v>
       </c>
       <c r="J10">
         <v>321.34435944922154</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
       <c r="M10">
         <v>0.5</v>
       </c>
       <c r="N10">
         <v>855.19298132728284</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
         <v>338.20319004731431</v>
       </c>
-      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E11">
@@ -3189,31 +3250,24 @@
       <c r="F11">
         <v>810.83171889533128</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
       <c r="I11">
         <v>0.6</v>
       </c>
       <c r="J11">
         <v>265.51957539756199</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
       <c r="M11">
         <v>0.6</v>
       </c>
       <c r="N11">
         <v>851.01801462845469</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
       <c r="Q11">
         <v>0.6</v>
       </c>
       <c r="R11">
         <v>282.89940130543107</v>
       </c>
-      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3229,31 +3283,24 @@
       <c r="F12">
         <v>795.48371624079141</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
       <c r="I12">
         <v>0.7</v>
       </c>
       <c r="J12">
         <v>220.26210204056716</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
       <c r="M12">
         <v>0.7</v>
       </c>
       <c r="N12">
         <v>845.35408448838189</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
       <c r="Q12">
         <v>0.7</v>
       </c>
       <c r="R12">
         <v>237.31085346823042</v>
       </c>
-      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3268,31 +3315,24 @@
       <c r="F13">
         <v>778.89365334894705</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
       <c r="I13">
         <v>0.79999999999999905</v>
       </c>
       <c r="J13">
         <v>183.13769755611949</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
       <c r="M13">
         <v>0.79999999999999905</v>
       </c>
       <c r="N13">
         <v>838.3103052161274</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
       <c r="Q13">
         <v>0.79999999999999905</v>
       </c>
       <c r="R13">
         <v>199.2920112097942</v>
       </c>
-      <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3307,31 +3347,25 @@
       <c r="F14">
         <v>761.33426751079378</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
       <c r="I14">
         <v>0.89999999999999902</v>
       </c>
       <c r="J14">
         <v>152.45689962036593</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
+      <c r="K14" s="1"/>
       <c r="M14">
         <v>0.89999999999999902</v>
       </c>
       <c r="N14">
         <v>830.0100796705417</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
       <c r="Q14">
         <v>0.89999999999999902</v>
       </c>
       <c r="R14">
         <v>167.38597656338285</v>
       </c>
-      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3346,31 +3380,25 @@
       <c r="F15">
         <v>743.08041201638218</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
         <v>126.97642157887469</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="1"/>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
         <v>820.60409796817726</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15">
         <v>140.53416960876987</v>
       </c>
-      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3385,33 +3413,27 @@
       <c r="F16">
         <v>724.36318802750418</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
       <c r="I16">
         <v>1.1000000000000001</v>
       </c>
       <c r="J16">
         <v>105.65045805532382</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="1"/>
       <c r="M16">
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
         <v>810.24753392745811</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
       <c r="Q16">
         <v>1.1000000000000001</v>
       </c>
       <c r="R16">
         <v>117.82958831916774</v>
       </c>
-      <c r="S16" s="5"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14.8989898989899</v>
       </c>
@@ -3424,33 +3446,27 @@
       <c r="F17">
         <v>705.37437874335956</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
       <c r="I17">
         <v>1.2</v>
       </c>
       <c r="J17">
         <v>87.909126578264988</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="1"/>
       <c r="M17">
         <v>1.2</v>
       </c>
       <c r="N17">
         <v>799.09332666701948</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
       <c r="Q17">
         <v>1.2</v>
       </c>
       <c r="R17">
         <v>98.681701474669396</v>
       </c>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28.939393939393899</v>
       </c>
@@ -3463,132 +3479,107 @@
       <c r="F18">
         <v>686.27147921649953</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
       <c r="I18">
         <v>1.3</v>
       </c>
       <c r="J18">
         <v>73.133277546323484</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
       <c r="M18">
         <v>1.3</v>
       </c>
       <c r="N18">
         <v>787.32983647902415</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
       <c r="Q18">
         <v>1.3</v>
       </c>
       <c r="R18">
         <v>82.581928399705831</v>
       </c>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>1.4</v>
       </c>
       <c r="F19">
         <v>667.21928103827781</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
       <c r="I19">
         <v>1.4</v>
       </c>
       <c r="J19">
         <v>60.845882134958863</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
+      <c r="K19" s="1"/>
       <c r="M19">
         <v>1.4</v>
       </c>
       <c r="N19">
         <v>775.08126305552196</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
       <c r="Q19">
         <v>1.4</v>
       </c>
       <c r="R19">
         <v>69.056518563559692</v>
       </c>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>1.5</v>
       </c>
       <c r="F20">
         <v>648.29463890327008</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
       <c r="I20">
         <v>1.5</v>
       </c>
       <c r="J20">
         <v>50.619770518899799</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="1"/>
       <c r="M20">
         <v>1.5</v>
       </c>
       <c r="N20">
         <v>762.43807430469235</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
       <c r="Q20">
         <v>1.5</v>
       </c>
       <c r="R20">
         <v>57.711757877828958</v>
       </c>
-      <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>1.5999999999999901</v>
       </c>
       <c r="F21">
         <v>629.57253670241323</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
       <c r="I21">
         <v>1.5999999999999901</v>
       </c>
       <c r="J21">
         <v>42.108764755854637</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="1"/>
       <c r="M21">
         <v>1.5999999999999901</v>
       </c>
       <c r="N21">
         <v>749.47714494024592</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
       <c r="Q21">
         <v>1.5999999999999901</v>
       </c>
       <c r="R21">
         <v>48.218963473118968</v>
       </c>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -3602,33 +3593,27 @@
       <c r="F22">
         <v>611.08136645993613</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
       <c r="I22">
         <v>1.7</v>
       </c>
       <c r="J22">
         <v>35.020449967593088</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="1"/>
       <c r="M22">
         <v>1.7</v>
       </c>
       <c r="N22">
         <v>736.28900954933874</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
       <c r="Q22">
         <v>1.7</v>
       </c>
       <c r="R22">
         <v>40.278001428695035</v>
       </c>
-      <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3641,33 +3626,27 @@
       <c r="F23">
         <v>592.89720182500196</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
       <c r="I23">
         <v>1.7999999999999901</v>
       </c>
       <c r="J23">
         <v>29.117316240065453</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
+      <c r="K23" s="1"/>
       <c r="M23">
         <v>1.7999999999999901</v>
       </c>
       <c r="N23">
         <v>722.96648642811954</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
       <c r="Q23">
         <v>1.7999999999999901</v>
       </c>
       <c r="R23">
         <v>33.633551225353962</v>
       </c>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -3680,33 +3659,27 @@
       <c r="F24">
         <v>575.04798831440371</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
       <c r="I24">
         <v>1.9</v>
       </c>
       <c r="J24">
         <v>24.207037955987758</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
+      <c r="K24" s="1"/>
       <c r="M24">
         <v>1.9</v>
       </c>
       <c r="N24">
         <v>709.56210215856561</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
       <c r="Q24">
         <v>1.9</v>
       </c>
       <c r="R24">
         <v>28.078766173659272</v>
       </c>
-      <c r="S24" s="5"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -3719,33 +3692,27 @@
       <c r="F25">
         <v>557.57631587843434</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25">
         <v>20.12373826533905</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
+      <c r="K25" s="1"/>
       <c r="M25">
         <v>2</v>
       </c>
       <c r="N25">
         <v>696.15156221798134</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
       <c r="Q25">
         <v>2</v>
       </c>
       <c r="R25">
         <v>23.43698706745354</v>
       </c>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28</v>
       </c>
@@ -3758,99 +3725,81 @@
       <c r="F26">
         <v>540.49942567767778</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
       <c r="I26">
         <v>2.1</v>
       </c>
       <c r="J26">
         <v>16.72890491569412</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="K26" s="1"/>
       <c r="M26">
         <v>2.1</v>
       </c>
       <c r="N26">
         <v>682.76696405897212</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
       <c r="Q26">
         <v>2.1</v>
       </c>
       <c r="R26">
         <v>19.559634016922381</v>
       </c>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>2.2000000000000002</v>
       </c>
       <c r="F27">
         <v>523.83824521525332</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
       <c r="I27">
         <v>2.2000000000000002</v>
       </c>
       <c r="J27">
         <v>13.906969305838178</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
+      <c r="K27" s="1"/>
       <c r="M27">
         <v>2.2000000000000002</v>
       </c>
       <c r="N27">
         <v>669.4639807515747</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
       <c r="Q27">
         <v>2.2000000000000002</v>
       </c>
       <c r="R27">
         <v>16.321826713040853</v>
       </c>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>2.2999999999999998</v>
       </c>
       <c r="F28">
         <v>507.60139891946432</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
       <c r="I28">
         <v>2.2999999999999998</v>
       </c>
       <c r="J28">
         <v>11.561580513181703</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="K28" s="1"/>
       <c r="M28">
         <v>2.2999999999999998</v>
       </c>
       <c r="N28">
         <v>656.26186258800794</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
       <c r="Q28">
         <v>2.2999999999999998</v>
       </c>
       <c r="R28">
         <v>13.61874288787541</v>
       </c>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -3864,33 +3813,27 @@
       <c r="F29">
         <v>491.79547126641751</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
       <c r="I29">
         <v>2.4</v>
       </c>
       <c r="J29">
         <v>9.6094323396954593</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
+      <c r="K29" s="1"/>
       <c r="M29">
         <v>2.4</v>
       </c>
       <c r="N29">
         <v>643.19937651695557</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
       <c r="Q29">
         <v>2.4</v>
       </c>
       <c r="R29">
         <v>11.362509887380938</v>
       </c>
-      <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3903,33 +3846,27 @@
       <c r="F30">
         <v>476.42364243993438</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
       <c r="I30">
         <v>2.5</v>
       </c>
       <c r="J30">
         <v>7.9862755926505988</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
+      <c r="K30" s="1"/>
       <c r="M30">
         <v>2.5</v>
       </c>
       <c r="N30">
         <v>630.28746792081108</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
       <c r="Q30">
         <v>2.5</v>
       </c>
       <c r="R30">
         <v>9.4795432639616433</v>
       </c>
-      <c r="S30" s="5"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.7431372549019502</v>
       </c>
@@ -3942,33 +3879,27 @@
       <c r="F31">
         <v>461.48298109493078</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
       <c r="I31">
         <v>2.6</v>
       </c>
       <c r="J31">
         <v>6.6373034884544664</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="5"/>
+      <c r="K31" s="1"/>
       <c r="M31">
         <v>2.6</v>
       </c>
       <c r="N31">
         <v>617.55192355391796</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
       <c r="Q31">
         <v>2.6</v>
       </c>
       <c r="R31">
         <v>7.9082763876722986</v>
       </c>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.9617647058823504</v>
       </c>
@@ -3981,31 +3912,25 @@
       <c r="F32">
         <v>446.97356827044166</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
       <c r="I32">
         <v>2.7</v>
       </c>
       <c r="J32">
         <v>5.5163137771463093</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="5"/>
+      <c r="K32" s="1"/>
       <c r="M32">
         <v>2.7</v>
       </c>
       <c r="N32">
         <v>605.00453746500102</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
       <c r="Q32">
         <v>2.7</v>
       </c>
       <c r="R32">
         <v>6.5972324295865246</v>
       </c>
-      <c r="S32" s="5"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -4020,31 +3945,25 @@
       <c r="F33">
         <v>432.87421062662008</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
       <c r="I33">
         <v>2.8</v>
       </c>
       <c r="J33">
         <v>4.5848518907432307</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
+      <c r="K33" s="1"/>
       <c r="M33">
         <v>2.8</v>
       </c>
       <c r="N33">
         <v>592.66649058304893</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
       <c r="Q33">
         <v>2.8</v>
       </c>
       <c r="R33">
         <v>5.503393567178068</v>
       </c>
-      <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4059,31 +3978,25 @@
       <c r="F34">
         <v>419.1813958097801</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
       <c r="I34">
         <v>2.9</v>
       </c>
       <c r="J34">
         <v>3.8109221280242855</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="5"/>
+      <c r="K34" s="1"/>
       <c r="M34">
         <v>2.9</v>
       </c>
       <c r="N34">
         <v>580.52579181146484</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
       <c r="Q34">
         <v>2.9</v>
       </c>
       <c r="R34">
         <v>4.590825742192072</v>
       </c>
-      <c r="S34" s="5"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4098,31 +4011,25 @@
       <c r="F35">
         <v>405.8994432906141</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
       <c r="I35">
         <v>3</v>
       </c>
       <c r="J35">
         <v>3.1677736182193317</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
+      <c r="K35" s="1"/>
       <c r="M35">
         <v>3</v>
       </c>
       <c r="N35">
         <v>568.58244115024843</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
       <c r="Q35">
         <v>3</v>
       </c>
       <c r="R35">
         <v>3.8295218115607272</v>
       </c>
-      <c r="S35" s="5"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E36">
@@ -4131,31 +4038,25 @@
       <c r="F36">
         <v>393.02835306912806</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
       <c r="I36">
         <v>3.0999999999999899</v>
       </c>
       <c r="J36">
         <v>2.6324812510659084</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
+      <c r="K36" s="1"/>
       <c r="M36">
         <v>3.0999999999999899</v>
       </c>
       <c r="N36">
         <v>556.84878202846392</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
       <c r="Q36">
         <v>3.0999999999999899</v>
       </c>
       <c r="R36">
         <v>3.1944302532811033</v>
       </c>
-      <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E37">
@@ -4164,31 +4065,25 @@
       <c r="F37">
         <v>380.52510426522122</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
       <c r="I37">
         <v>3.19999999999999</v>
       </c>
       <c r="J37">
         <v>2.1876599036832514</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
+      <c r="K37" s="1"/>
       <c r="M37">
         <v>3.19999999999999</v>
       </c>
       <c r="N37">
         <v>545.3294673380226</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
       <c r="Q37">
         <v>3.19999999999999</v>
       </c>
       <c r="R37">
         <v>2.6646408687450505</v>
       </c>
-      <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -4204,8 +4099,6 @@
       <c r="F38">
         <v>368.39928495636656</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
       <c r="I38">
         <v>3.3</v>
       </c>
@@ -4216,15 +4109,12 @@
         <f>_xlfn.FORECAST.LINEAR(J35/2,I38:I39,J38:J39)-3</f>
         <v>0.37624792359146042</v>
       </c>
-      <c r="L38" s="5"/>
       <c r="M38">
         <v>3.3</v>
       </c>
       <c r="N38">
         <v>534.01705740631678</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
       <c r="Q38">
         <v>3.3</v>
       </c>
@@ -4249,31 +4139,25 @@
       <c r="F39">
         <v>356.66090802421451</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
       <c r="I39">
         <v>3.4</v>
       </c>
       <c r="J39">
         <v>1.5109435561106936</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
+      <c r="K39" s="1"/>
       <c r="M39">
         <v>3.4</v>
       </c>
       <c r="N39">
         <v>522.91155223334522</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
       <c r="Q39">
         <v>3.4</v>
       </c>
       <c r="R39">
         <v>1.8540542193385328</v>
       </c>
-      <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4288,31 +4172,25 @@
       <c r="F40">
         <v>345.30997346877098</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
       <c r="I40">
         <v>3.5</v>
       </c>
       <c r="J40">
         <v>1.2557925514622328</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
+      <c r="K40" s="1"/>
       <c r="M40">
         <v>3.5</v>
       </c>
       <c r="N40">
         <v>512.01714251626106</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
       <c r="Q40">
         <v>3.5</v>
       </c>
       <c r="R40">
         <v>1.5465445817248455</v>
       </c>
-      <c r="S40" s="5"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -4327,31 +4205,25 @@
       <c r="F41">
         <v>334.28039785845061</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
       <c r="I41">
         <v>3.5999999999999899</v>
       </c>
       <c r="J41">
         <v>1.0438126272193025</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="5"/>
+      <c r="K41" s="1"/>
       <c r="M41">
         <v>3.5999999999999899</v>
       </c>
       <c r="N41">
         <v>501.33559481664776</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
       <c r="Q41">
         <v>3.5999999999999899</v>
       </c>
       <c r="R41">
         <v>1.2900365224504258</v>
       </c>
-      <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4366,31 +4238,25 @@
       <c r="F42">
         <v>323.58909105393474</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
       <c r="I42">
         <v>3.69999999999999</v>
       </c>
       <c r="J42">
         <v>0.8675672043473327</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="5"/>
+      <c r="K42" s="1"/>
       <c r="M42">
         <v>3.69999999999999</v>
       </c>
       <c r="N42">
         <v>490.86426924864463</v>
       </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
       <c r="Q42">
         <v>3.69999999999999</v>
       </c>
       <c r="R42">
         <v>1.0760726475410691</v>
       </c>
-      <c r="S42" s="5"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -4405,31 +4271,25 @@
       <c r="F43">
         <v>313.25009035309034</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
       <c r="I43">
         <v>3.8</v>
       </c>
       <c r="J43">
         <v>0.72095708659746094</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="5"/>
+      <c r="K43" s="1"/>
       <c r="M43">
         <v>3.8</v>
       </c>
       <c r="N43">
         <v>480.60316581225914</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
       <c r="Q43">
         <v>3.8</v>
       </c>
       <c r="R43">
         <v>0.8975975703045409</v>
       </c>
-      <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -4444,31 +4304,25 @@
       <c r="F44">
         <v>303.26339575592789</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
       <c r="I44">
         <v>3.9</v>
       </c>
       <c r="J44">
         <v>0.59913366579136551</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="5"/>
+      <c r="K44" s="1"/>
       <c r="M44">
         <v>3.9</v>
       </c>
       <c r="N44">
         <v>470.54503876925941</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
       <c r="Q44">
         <v>3.9</v>
       </c>
       <c r="R44">
         <v>0.74872566475618108</v>
       </c>
-      <c r="S44" s="5"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E45">
@@ -4477,31 +4331,25 @@
       <c r="F45">
         <v>293.5572589827749</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
       <c r="I45">
         <v>4</v>
       </c>
       <c r="J45">
         <v>0.49791319062048722</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="5"/>
+      <c r="K45" s="1"/>
       <c r="M45">
         <v>4</v>
       </c>
       <c r="N45">
         <v>460.68649756834435</v>
       </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
       <c r="Q45">
         <v>4</v>
       </c>
       <c r="R45">
         <v>0.62454722670538854</v>
       </c>
-      <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E46">
@@ -4510,31 +4358,25 @@
       <c r="F46">
         <v>284.15231635381349</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
       <c r="I46">
         <v>4.0999999999999996</v>
       </c>
       <c r="J46">
         <v>0.41381690651257791</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
+      <c r="K46" s="1"/>
       <c r="M46">
         <v>4.0999999999999996</v>
       </c>
       <c r="N46">
         <v>451.03231165318982</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
       <c r="Q46">
         <v>4.0999999999999996</v>
       </c>
       <c r="R46">
         <v>0.5209667864605716</v>
       </c>
-      <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E47">
@@ -4543,31 +4385,25 @@
       <c r="F47">
         <v>275.06240538412897</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
       <c r="I47">
         <v>4.2</v>
       </c>
       <c r="J47">
         <v>0.34395263589215314</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="5"/>
+      <c r="K47" s="1"/>
       <c r="M47">
         <v>4.2</v>
       </c>
       <c r="N47">
         <v>441.58248102380315</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
       <c r="Q47">
         <v>4.2</v>
       </c>
       <c r="R47">
         <v>0.43456832275747914</v>
       </c>
-      <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E48">
@@ -4576,264 +4412,211 @@
       <c r="F48">
         <v>266.28752607372883</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
       <c r="I48">
         <v>4.3</v>
       </c>
       <c r="J48">
         <v>0.28591638066826042</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
+      <c r="K48" s="1"/>
       <c r="M48">
         <v>4.3</v>
       </c>
       <c r="N48">
         <v>432.32557574120693</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
       <c r="Q48">
         <v>4.3</v>
       </c>
       <c r="R48">
         <v>0.36250321293576648</v>
       </c>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>4.4000000000000004</v>
       </c>
       <c r="F49">
         <v>257.75688815764943</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
       <c r="I49">
         <v>4.4000000000000004</v>
       </c>
       <c r="J49">
         <v>0.23764041708516115</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="5"/>
+      <c r="K49" s="1"/>
       <c r="M49">
         <v>4.4000000000000004</v>
       </c>
       <c r="N49">
         <v>423.25569513932874</v>
       </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
       <c r="Q49">
         <v>4.4000000000000004</v>
       </c>
       <c r="R49">
         <v>0.30239582541047061</v>
       </c>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>4.5</v>
       </c>
       <c r="F50">
         <v>249.49301342028394</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
       <c r="I50">
         <v>4.5</v>
       </c>
       <c r="J50">
         <v>0.19750723387846986</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="5"/>
+      <c r="K50" s="1"/>
       <c r="M50">
         <v>4.5</v>
       </c>
       <c r="N50">
         <v>414.38069954114366</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
       <c r="Q50">
         <v>4.5</v>
       </c>
       <c r="R50">
         <v>0.2522631105680298</v>
       </c>
-      <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>4.5999999999999996</v>
       </c>
       <c r="F51">
         <v>241.50822169347714</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
       <c r="I51">
         <v>4.5999999999999996</v>
       </c>
       <c r="J51">
         <v>0.16415976407376159</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
       <c r="M51">
         <v>4.5999999999999996</v>
       </c>
       <c r="N51">
         <v>405.70058894664862</v>
       </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
       <c r="Q51">
         <v>4.5999999999999996</v>
       </c>
       <c r="R51">
         <v>0.2104488094191132</v>
       </c>
-      <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>4.7</v>
       </c>
       <c r="F52">
         <v>233.80251297722748</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
       <c r="I52">
         <v>4.7</v>
       </c>
       <c r="J52">
         <v>0.13645018989864763</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
       <c r="M52">
         <v>4.7</v>
       </c>
       <c r="N52">
         <v>397.18747338844099</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
       <c r="Q52">
         <v>4.7</v>
       </c>
       <c r="R52">
         <v>0.17557052422084926</v>
       </c>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>4.8</v>
       </c>
       <c r="F53">
         <v>226.30934571038728</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
       <c r="I53">
         <v>4.8</v>
       </c>
       <c r="J53">
         <v>0.11342506488447766</v>
       </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
       <c r="M53">
         <v>4.8</v>
       </c>
       <c r="N53">
         <v>388.82555060246966</v>
       </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
       <c r="Q53">
         <v>4.8</v>
       </c>
       <c r="R53">
         <v>0.14647569493855628</v>
       </c>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>4.9000000000000004</v>
       </c>
       <c r="F54">
         <v>219.05184546291841</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
       <c r="I54">
         <v>4.9000000000000004</v>
       </c>
       <c r="J54">
         <v>9.4292553540895385E-2</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
       <c r="M54">
         <v>4.9000000000000004</v>
       </c>
       <c r="N54">
         <v>380.63485610113844</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
       <c r="Q54">
         <v>4.9000000000000004</v>
       </c>
       <c r="R54">
         <v>0.12220398194086514</v>
       </c>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>5</v>
       </c>
       <c r="F55">
         <v>212.04038536235831</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
       <c r="I55">
         <v>5</v>
       </c>
       <c r="J55">
         <v>7.8393602781616167E-2</v>
       </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
       <c r="M55">
         <v>5</v>
       </c>
       <c r="N55">
         <v>372.61538988443988</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
       <c r="Q55">
         <v>5</v>
       </c>
       <c r="R55">
         <v>0.10195515080109531</v>
       </c>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>5.0999999999999996</v>
       </c>
@@ -4844,32 +4627,26 @@
         <f>_xlfn.FORECAST.LINEAR(F35/2,E56:E57,F56:F57)-3</f>
         <v>2.1353361715296346</v>
       </c>
-      <c r="H56" s="5"/>
       <c r="I56">
         <v>5.0999999999999996</v>
       </c>
       <c r="J56">
         <v>6.5157645002904427E-2</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
       <c r="M56">
         <v>5.0999999999999996</v>
       </c>
       <c r="N56">
         <v>364.76715195237398</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
       <c r="Q56">
         <v>5.0999999999999996</v>
       </c>
       <c r="R56">
         <v>8.5062107826403499E-2</v>
       </c>
-      <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="5:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>5.2</v>
       </c>
@@ -4895,7 +4672,7 @@
         <v>7.0968541588226811E-2</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>5.3</v>
       </c>
@@ -4921,7 +4698,7 @@
         <v>5.9210429817045475E-2</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>5.4</v>
       </c>
@@ -4947,7 +4724,7 @@
         <v>4.9397779403710082E-2</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>5.5</v>
       </c>
@@ -4973,7 +4750,7 @@
         <v>4.1210324272501334E-2</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>5.6</v>
       </c>
@@ -4999,7 +4776,7 @@
         <v>3.4379913292668242E-2</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>5.6999999999999904</v>
       </c>
@@ -5025,7 +4802,7 @@
         <v>2.8681619807170079E-2</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>5.8</v>
       </c>
@@ -5051,7 +4828,7 @@
         <v>2.3927798953848882E-2</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>5.9</v>
       </c>
@@ -5369,16 +5146,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
